--- a/Lectures/Lecture 10/MillsTranship.xlsx
+++ b/Lectures/Lecture 10/MillsTranship.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A099AA1-48E4-4C8A-8F36-CF0E85BDB05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC52443-109C-4C49-A27E-59CF09460859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1420" windowWidth="19200" windowHeight="10160" xr2:uid="{E92E9B52-646E-1E45-AFA8-8220EEBCE88F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{E92E9B52-646E-1E45-AFA8-8220EEBCE88F}"/>
   </bookViews>
   <sheets>
     <sheet name="Balanced" sheetId="1" r:id="rId1"/>
@@ -768,7 +768,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
